--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D591"/>
+  <dimension ref="A1:D592"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A572" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A594" sqref="A594"/>
+      <selection activeCell="A589" sqref="A589:A592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8374,6 +8374,20 @@
         <v>3</v>
       </c>
       <c r="D591" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A592" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B592">
+        <v>1566</v>
+      </c>
+      <c r="C592" t="s">
+        <v>3</v>
+      </c>
+      <c r="D592" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D592"/>
+  <dimension ref="A1:D593"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A572" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A589" sqref="A589:A592"/>
+      <selection activeCell="C593" sqref="C593:D593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8388,6 +8388,20 @@
         <v>3</v>
       </c>
       <c r="D592" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A593" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B593">
+        <v>1496</v>
+      </c>
+      <c r="C593" t="s">
+        <v>3</v>
+      </c>
+      <c r="D593" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D593"/>
+  <dimension ref="A1:D594"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A572" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C593" sqref="C593:D593"/>
+      <selection activeCell="C594" sqref="C594:D594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8402,6 +8402,20 @@
         <v>3</v>
       </c>
       <c r="D593" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A594" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B594">
+        <v>1496</v>
+      </c>
+      <c r="C594" t="s">
+        <v>3</v>
+      </c>
+      <c r="D594" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D594"/>
+  <dimension ref="A1:D595"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A572" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C594" sqref="C594:D594"/>
+      <selection activeCell="C594" sqref="C594:D595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8416,6 +8416,20 @@
         <v>3</v>
       </c>
       <c r="D594" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A595" s="1">
+        <v>44646</v>
+      </c>
+      <c r="B595">
+        <v>1492</v>
+      </c>
+      <c r="C595" t="s">
+        <v>3</v>
+      </c>
+      <c r="D595" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D595"/>
+  <dimension ref="A1:D596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A572" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C594" sqref="C594:D595"/>
+    <sheetView tabSelected="1" topLeftCell="A573" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A595" sqref="A595:A596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8430,6 +8430,20 @@
         <v>3</v>
       </c>
       <c r="D595" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A596" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B596">
+        <v>1488</v>
+      </c>
+      <c r="C596" t="s">
+        <v>3</v>
+      </c>
+      <c r="D596" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D596"/>
+  <dimension ref="A1:D597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A573" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A595" sqref="A595:A596"/>
+    <sheetView tabSelected="1" topLeftCell="A579" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B598" sqref="B598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8444,6 +8444,20 @@
         <v>3</v>
       </c>
       <c r="D596" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A597" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B597">
+        <v>1493</v>
+      </c>
+      <c r="C597" t="s">
+        <v>3</v>
+      </c>
+      <c r="D597" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D597"/>
+  <dimension ref="A1:D600"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A579" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B598" sqref="B598"/>
+      <selection activeCell="C600" sqref="C600:D600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8458,6 +8458,48 @@
         <v>3</v>
       </c>
       <c r="D597" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A598" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B598">
+        <v>1519</v>
+      </c>
+      <c r="C598" t="s">
+        <v>3</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A599" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B599">
+        <v>1511</v>
+      </c>
+      <c r="C599" t="s">
+        <v>3</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A600" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B600">
+        <v>1464</v>
+      </c>
+      <c r="C600" t="s">
+        <v>3</v>
+      </c>
+      <c r="D600" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D600"/>
+  <dimension ref="A1:D601"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A579" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C600" sqref="C600:D600"/>
+      <selection activeCell="C601" sqref="C601:D601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8500,6 +8500,20 @@
         <v>3</v>
       </c>
       <c r="D600" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A601" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B601">
+        <v>1400</v>
+      </c>
+      <c r="C601" t="s">
+        <v>3</v>
+      </c>
+      <c r="D601" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D601"/>
+  <dimension ref="A1:D602"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A579" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C601" sqref="C601:D601"/>
+      <selection activeCell="C602" sqref="C602:D602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8514,6 +8514,20 @@
         <v>3</v>
       </c>
       <c r="D601" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A602" s="1">
+        <v>44653</v>
+      </c>
+      <c r="B602">
+        <v>1332</v>
+      </c>
+      <c r="C602" t="s">
+        <v>3</v>
+      </c>
+      <c r="D602" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D602"/>
+  <dimension ref="A1:D604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A579" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C602" sqref="C602:D602"/>
+    <sheetView tabSelected="1" topLeftCell="A594" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A601" sqref="A601:A604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8528,6 +8528,34 @@
         <v>3</v>
       </c>
       <c r="D602" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A603" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B603">
+        <v>1324</v>
+      </c>
+      <c r="C603" t="s">
+        <v>3</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A604" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B604">
+        <v>1374</v>
+      </c>
+      <c r="C604" t="s">
+        <v>3</v>
+      </c>
+      <c r="D604" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D604"/>
+  <dimension ref="A1:D605"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A594" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A601" sqref="A601:A604"/>
+      <selection activeCell="B605" sqref="B605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8556,6 +8556,20 @@
         <v>3</v>
       </c>
       <c r="D604" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A605" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B605">
+        <v>1383</v>
+      </c>
+      <c r="C605" t="s">
+        <v>3</v>
+      </c>
+      <c r="D605" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D605"/>
+  <dimension ref="A1:D606"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A594" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B605" sqref="B605"/>
+      <selection activeCell="B607" sqref="B607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8570,6 +8570,20 @@
         <v>3</v>
       </c>
       <c r="D605" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A606" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B606">
+        <v>1326</v>
+      </c>
+      <c r="C606" t="s">
+        <v>3</v>
+      </c>
+      <c r="D606" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D606"/>
+  <dimension ref="A1:D607"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A594" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B607" sqref="B607"/>
+      <selection activeCell="C607" sqref="C607:D607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8584,6 +8584,20 @@
         <v>3</v>
       </c>
       <c r="D606" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A607" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B607">
+        <v>1257</v>
+      </c>
+      <c r="C607" t="s">
+        <v>3</v>
+      </c>
+      <c r="D607" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D607"/>
+  <dimension ref="A1:D608"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A594" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C607" sqref="C607:D607"/>
+      <selection activeCell="A604" sqref="A604:A608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8598,6 +8598,20 @@
         <v>3</v>
       </c>
       <c r="D607" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A608" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B608">
+        <v>1261</v>
+      </c>
+      <c r="C608" t="s">
+        <v>3</v>
+      </c>
+      <c r="D608" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D608"/>
+  <dimension ref="A1:D609"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A594" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A604" sqref="A604:A608"/>
+      <selection activeCell="C609" sqref="C609:D609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8612,6 +8612,20 @@
         <v>3</v>
       </c>
       <c r="D608" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A609" s="1">
+        <v>44660</v>
+      </c>
+      <c r="B609">
+        <v>1179</v>
+      </c>
+      <c r="C609" t="s">
+        <v>3</v>
+      </c>
+      <c r="D609" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D609"/>
+  <dimension ref="A1:D610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A594" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C609" sqref="C609:D609"/>
+    <sheetView tabSelected="1" topLeftCell="A597" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B582" sqref="B582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8626,6 +8626,20 @@
         <v>3</v>
       </c>
       <c r="D609" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A610" s="1">
+        <v>44661</v>
+      </c>
+      <c r="B610">
+        <v>1169</v>
+      </c>
+      <c r="C610" t="s">
+        <v>3</v>
+      </c>
+      <c r="D610" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D610"/>
+  <dimension ref="A1:D611"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A597" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B582" sqref="B582"/>
+      <selection activeCell="C610" sqref="C610:D611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8640,6 +8640,20 @@
         <v>3</v>
       </c>
       <c r="D610" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A611" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B611">
+        <v>1216</v>
+      </c>
+      <c r="C611" t="s">
+        <v>3</v>
+      </c>
+      <c r="D611" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D611"/>
+  <dimension ref="A1:D612"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A597" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C610" sqref="C610:D611"/>
+      <selection activeCell="A611" sqref="A609:A612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8654,6 +8654,20 @@
         <v>3</v>
       </c>
       <c r="D611" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A612" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B612">
+        <v>1170</v>
+      </c>
+      <c r="C612" t="s">
+        <v>3</v>
+      </c>
+      <c r="D612" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D612"/>
+  <dimension ref="A1:D613"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A597" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A611" sqref="A609:A612"/>
+      <selection activeCell="A612" sqref="A610:A613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8668,6 +8668,20 @@
         <v>3</v>
       </c>
       <c r="D612" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A613" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B613">
+        <v>1166</v>
+      </c>
+      <c r="C613" t="s">
+        <v>3</v>
+      </c>
+      <c r="D613" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D613"/>
+  <dimension ref="A1:D614"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A597" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A612" sqref="A610:A613"/>
+      <selection activeCell="C614" sqref="C614:D614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8682,6 +8682,20 @@
         <v>3</v>
       </c>
       <c r="D613" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A614" s="1">
+        <v>44665</v>
+      </c>
+      <c r="B614">
+        <v>1094</v>
+      </c>
+      <c r="C614" t="s">
+        <v>3</v>
+      </c>
+      <c r="D614" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D614"/>
+  <dimension ref="A1:F619"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A597" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C614" sqref="C614:D614"/>
+      <selection activeCell="C615" sqref="C615:D615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8615,7 +8615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>44660</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>44661</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>44662</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>44663</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>44664</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>44665</v>
       </c>
@@ -8698,6 +8698,27 @@
       <c r="D614" s="2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A615" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B615">
+        <v>1018</v>
+      </c>
+      <c r="C615" t="s">
+        <v>3</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E618" s="1"/>
+      <c r="F618" s="1"/>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E619" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D256">

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -404,7 +404,7 @@
   <dimension ref="A1:F619"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A597" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C615" sqref="C615:D615"/>
+      <selection activeCell="A615" sqref="A615:A616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8710,6 +8710,20 @@
         <v>3</v>
       </c>
       <c r="D615" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A616" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B616">
+        <v>1058</v>
+      </c>
+      <c r="C616" t="s">
+        <v>3</v>
+      </c>
+      <c r="D616" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -404,7 +404,7 @@
   <dimension ref="A1:F619"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A597" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A615" sqref="A615:A616"/>
+      <selection activeCell="C617" sqref="C617:D617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8724,6 +8724,20 @@
         <v>3</v>
       </c>
       <c r="D616" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A617" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B617">
+        <v>951</v>
+      </c>
+      <c r="C617" t="s">
+        <v>3</v>
+      </c>
+      <c r="D617" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -404,7 +404,7 @@
   <dimension ref="A1:F619"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A597" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C617" sqref="C617:D617"/>
+      <selection activeCell="C618" sqref="C618:D618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8742,6 +8742,18 @@
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A618" s="1">
+        <v>44673</v>
+      </c>
+      <c r="B618">
+        <v>938</v>
+      </c>
+      <c r="C618" t="s">
+        <v>3</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -404,7 +404,7 @@
   <dimension ref="A1:F619"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A597" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C618" sqref="C618:D618"/>
+      <selection activeCell="A619" sqref="A619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8758,6 +8758,18 @@
       <c r="F618" s="1"/>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A619" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B619">
+        <v>865</v>
+      </c>
+      <c r="C619" t="s">
+        <v>3</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E619" s="1"/>
     </row>
   </sheetData>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F619"/>
+  <dimension ref="A1:F621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A597" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A619" sqref="A619"/>
+    <sheetView tabSelected="1" topLeftCell="A598" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A619" sqref="A619:A621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8771,6 +8771,34 @@
         <v>14</v>
       </c>
       <c r="E619" s="1"/>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A620" s="1">
+        <v>44677</v>
+      </c>
+      <c r="B620">
+        <v>873</v>
+      </c>
+      <c r="C620" t="s">
+        <v>3</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A621" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B621">
+        <v>819</v>
+      </c>
+      <c r="C621" t="s">
+        <v>3</v>
+      </c>
+      <c r="D621" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D256">

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F621"/>
+  <dimension ref="A1:F622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A598" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A619" sqref="A619:A621"/>
+    <sheetView tabSelected="1" topLeftCell="A592" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B561" sqref="B561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8797,6 +8797,20 @@
         <v>3</v>
       </c>
       <c r="D621" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A622" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B622">
+        <v>749</v>
+      </c>
+      <c r="C622" t="s">
+        <v>3</v>
+      </c>
+      <c r="D622" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F622"/>
+  <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A592" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B561" sqref="B561"/>
+    <sheetView tabSelected="1" topLeftCell="A604" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A622" sqref="A622:A623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8811,6 +8811,20 @@
         <v>3</v>
       </c>
       <c r="D622" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A623" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B623">
+        <v>726</v>
+      </c>
+      <c r="C623" t="s">
+        <v>3</v>
+      </c>
+      <c r="D623" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F623"/>
+  <dimension ref="A1:F626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A604" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A622" sqref="A622:A623"/>
+    <sheetView tabSelected="1" topLeftCell="A619" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C623" sqref="C623:D626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8825,6 +8825,48 @@
         <v>3</v>
       </c>
       <c r="D623" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A624" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B624">
+        <v>726</v>
+      </c>
+      <c r="C624" t="s">
+        <v>3</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A625" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B625">
+        <v>726</v>
+      </c>
+      <c r="C625" t="s">
+        <v>3</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A626" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B626">
+        <v>662</v>
+      </c>
+      <c r="C626" t="s">
+        <v>3</v>
+      </c>
+      <c r="D626" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F626"/>
+  <dimension ref="A1:F628"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A619" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C623" sqref="C623:D626"/>
+      <selection activeCell="C627" sqref="C627:D628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8867,6 +8867,34 @@
         <v>3</v>
       </c>
       <c r="D626" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A627" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B627">
+        <v>687</v>
+      </c>
+      <c r="C627" t="s">
+        <v>3</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A628" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B628">
+        <v>691</v>
+      </c>
+      <c r="C628" t="s">
+        <v>3</v>
+      </c>
+      <c r="D628" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F628"/>
+  <dimension ref="A1:F633"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A619" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C627" sqref="C627:D628"/>
+      <selection activeCell="B624" sqref="B624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8895,6 +8895,76 @@
         <v>3</v>
       </c>
       <c r="D628" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A629" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B629">
+        <v>644</v>
+      </c>
+      <c r="C629" t="s">
+        <v>3</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A630" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B630">
+        <v>634</v>
+      </c>
+      <c r="C630" t="s">
+        <v>3</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A631" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B631">
+        <v>634</v>
+      </c>
+      <c r="C631" t="s">
+        <v>3</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A632" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B632">
+        <v>634</v>
+      </c>
+      <c r="C632" t="s">
+        <v>3</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A633" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B633">
+        <v>558</v>
+      </c>
+      <c r="C633" t="s">
+        <v>3</v>
+      </c>
+      <c r="D633" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F633"/>
+  <dimension ref="A1:F640"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A619" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B624" sqref="B624"/>
+      <selection activeCell="C633" sqref="C633:D637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8967,6 +8967,71 @@
       <c r="D633" s="2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A634" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B634">
+        <v>546</v>
+      </c>
+      <c r="C634" t="s">
+        <v>3</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A635" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B635">
+        <v>504</v>
+      </c>
+      <c r="C635" t="s">
+        <v>3</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A636" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B636">
+        <v>472</v>
+      </c>
+      <c r="C636" t="s">
+        <v>3</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A637" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B637">
+        <v>445</v>
+      </c>
+      <c r="C637" t="s">
+        <v>3</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A638" s="1"/>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A639" s="1"/>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A640" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D256">

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8988</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8989</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8990</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8991</t>
   </si>
 </sst>
 </file>
@@ -401,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F640"/>
+  <dimension ref="A1:F641"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A619" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C633" sqref="C633:D637"/>
+      <selection activeCell="A641" sqref="A641:E642"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44053</v>
       </c>
@@ -437,7 +446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44054</v>
       </c>
@@ -451,7 +460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44055</v>
       </c>
@@ -465,7 +474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44056</v>
       </c>
@@ -479,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44057</v>
       </c>
@@ -493,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44058</v>
       </c>
@@ -504,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44059</v>
       </c>
@@ -515,7 +524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44060</v>
       </c>
@@ -529,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44061</v>
       </c>
@@ -543,7 +552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44062</v>
       </c>
@@ -557,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44063</v>
       </c>
@@ -571,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44064</v>
       </c>
@@ -585,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44065</v>
       </c>
@@ -596,7 +605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44066</v>
       </c>
@@ -607,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44067</v>
       </c>
@@ -621,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44068</v>
       </c>
@@ -635,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44069</v>
       </c>
@@ -649,7 +658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -663,7 +672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44071</v>
       </c>
@@ -677,7 +686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44072</v>
       </c>
@@ -688,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44073</v>
       </c>
@@ -699,7 +708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -713,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44075</v>
       </c>
@@ -727,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44076</v>
       </c>
@@ -741,7 +750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44077</v>
       </c>
@@ -755,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44078</v>
       </c>
@@ -769,7 +778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44079</v>
       </c>
@@ -780,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -791,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44081</v>
       </c>
@@ -805,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44082</v>
       </c>
@@ -819,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44083</v>
       </c>
@@ -833,7 +842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44084</v>
       </c>
@@ -847,7 +856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44085</v>
       </c>
@@ -861,7 +870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44086</v>
       </c>
@@ -872,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44087</v>
       </c>
@@ -883,7 +892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44088</v>
       </c>
@@ -897,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44089</v>
       </c>
@@ -911,7 +920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44090</v>
       </c>
@@ -925,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44091</v>
       </c>
@@ -939,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44092</v>
       </c>
@@ -953,7 +962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44093</v>
       </c>
@@ -964,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44094</v>
       </c>
@@ -975,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44095</v>
       </c>
@@ -989,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44096</v>
       </c>
@@ -1003,7 +1012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44097</v>
       </c>
@@ -1017,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44098</v>
       </c>
@@ -1031,7 +1040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44099</v>
       </c>
@@ -1045,7 +1054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44100</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44101</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44102</v>
       </c>
@@ -1081,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44103</v>
       </c>
@@ -1095,7 +1104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44104</v>
       </c>
@@ -1109,7 +1118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44105</v>
       </c>
@@ -1123,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44106</v>
       </c>
@@ -1137,7 +1146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44107</v>
       </c>
@@ -1148,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44108</v>
       </c>
@@ -1159,7 +1168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44109</v>
       </c>
@@ -1173,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44110</v>
       </c>
@@ -1187,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44111</v>
       </c>
@@ -1201,7 +1210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44112</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44113</v>
       </c>
@@ -1229,7 +1238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44114</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44115</v>
       </c>
@@ -1251,7 +1260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44116</v>
       </c>
@@ -1265,7 +1274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1279,7 +1288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1293,7 +1302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44119</v>
       </c>
@@ -1307,7 +1316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44120</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44121</v>
       </c>
@@ -1332,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44122</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44123</v>
       </c>
@@ -1357,7 +1366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44124</v>
       </c>
@@ -1371,7 +1380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44125</v>
       </c>
@@ -1385,7 +1394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44126</v>
       </c>
@@ -1399,7 +1408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44127</v>
       </c>
@@ -1413,7 +1422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44128</v>
       </c>
@@ -1424,7 +1433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44129</v>
       </c>
@@ -1435,7 +1444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44130</v>
       </c>
@@ -1449,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44131</v>
       </c>
@@ -1463,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44132</v>
       </c>
@@ -1477,7 +1486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44133</v>
       </c>
@@ -1491,7 +1500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44134</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44135</v>
       </c>
@@ -1516,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44136</v>
       </c>
@@ -1527,7 +1536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44137</v>
       </c>
@@ -1541,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44138</v>
       </c>
@@ -1555,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44139</v>
       </c>
@@ -1569,7 +1578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44140</v>
       </c>
@@ -1583,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44141</v>
       </c>
@@ -1597,7 +1606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44142</v>
       </c>
@@ -1608,7 +1617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44143</v>
       </c>
@@ -1619,7 +1628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44144</v>
       </c>
@@ -1633,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44145</v>
       </c>
@@ -1647,7 +1656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44146</v>
       </c>
@@ -1661,7 +1670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44147</v>
       </c>
@@ -1675,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44148</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44149</v>
       </c>
@@ -1700,7 +1709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44150</v>
       </c>
@@ -1711,7 +1720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44151</v>
       </c>
@@ -1725,7 +1734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44152</v>
       </c>
@@ -1739,7 +1748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44153</v>
       </c>
@@ -1750,7 +1759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44154</v>
       </c>
@@ -1764,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44155</v>
       </c>
@@ -1778,7 +1787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44156</v>
       </c>
@@ -1789,7 +1798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44157</v>
       </c>
@@ -1800,7 +1809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44158</v>
       </c>
@@ -1814,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44159</v>
       </c>
@@ -1828,7 +1837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44160</v>
       </c>
@@ -1842,7 +1851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44161</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44162</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44163</v>
       </c>
@@ -1881,7 +1890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44164</v>
       </c>
@@ -1892,7 +1901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44165</v>
       </c>
@@ -1906,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44166</v>
       </c>
@@ -1920,7 +1929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44167</v>
       </c>
@@ -1934,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44168</v>
       </c>
@@ -1948,7 +1957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44169</v>
       </c>
@@ -1962,7 +1971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44170</v>
       </c>
@@ -1973,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44171</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44172</v>
       </c>
@@ -1998,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44173</v>
       </c>
@@ -2012,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -2026,7 +2035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44175</v>
       </c>
@@ -2040,7 +2049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44176</v>
       </c>
@@ -2054,7 +2063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44177</v>
       </c>
@@ -2065,7 +2074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44178</v>
       </c>
@@ -2076,7 +2085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44179</v>
       </c>
@@ -2090,7 +2099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44180</v>
       </c>
@@ -2104,7 +2113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44181</v>
       </c>
@@ -2118,7 +2127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44182</v>
       </c>
@@ -2132,7 +2141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44183</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44184</v>
       </c>
@@ -2157,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44185</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44186</v>
       </c>
@@ -2182,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44187</v>
       </c>
@@ -2196,7 +2205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44188</v>
       </c>
@@ -2210,7 +2219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44189</v>
       </c>
@@ -2224,7 +2233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44190</v>
       </c>
@@ -2235,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44191</v>
       </c>
@@ -2246,7 +2255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44192</v>
       </c>
@@ -2257,7 +2266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44193</v>
       </c>
@@ -2271,7 +2280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44194</v>
       </c>
@@ -2285,7 +2294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44195</v>
       </c>
@@ -2299,7 +2308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -2313,7 +2322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -2324,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44198</v>
       </c>
@@ -2335,7 +2344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44199</v>
       </c>
@@ -2346,7 +2355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44200</v>
       </c>
@@ -2360,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44201</v>
       </c>
@@ -2374,7 +2383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44202</v>
       </c>
@@ -2388,7 +2397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44203</v>
       </c>
@@ -2402,7 +2411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44204</v>
       </c>
@@ -2416,7 +2425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44205</v>
       </c>
@@ -2427,7 +2436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44206</v>
       </c>
@@ -2438,7 +2447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44207</v>
       </c>
@@ -2452,7 +2461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44208</v>
       </c>
@@ -2466,7 +2475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44209</v>
       </c>
@@ -2480,7 +2489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44210</v>
       </c>
@@ -2494,7 +2503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44211</v>
       </c>
@@ -2508,7 +2517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44212</v>
       </c>
@@ -2519,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44213</v>
       </c>
@@ -2530,7 +2539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44214</v>
       </c>
@@ -2544,7 +2553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44215</v>
       </c>
@@ -2558,7 +2567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44216</v>
       </c>
@@ -2572,7 +2581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44217</v>
       </c>
@@ -2586,7 +2595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44218</v>
       </c>
@@ -2600,7 +2609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44219</v>
       </c>
@@ -2611,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44220</v>
       </c>
@@ -2622,7 +2631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44221</v>
       </c>
@@ -2636,7 +2645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44222</v>
       </c>
@@ -2650,7 +2659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44223</v>
       </c>
@@ -2664,7 +2673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44224</v>
       </c>
@@ -2678,7 +2687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44225</v>
       </c>
@@ -2692,7 +2701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44226</v>
       </c>
@@ -2703,7 +2712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -2714,7 +2723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44228</v>
       </c>
@@ -2728,7 +2737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44229</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44230</v>
       </c>
@@ -2756,7 +2765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -2770,7 +2779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44232</v>
       </c>
@@ -2784,7 +2793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44233</v>
       </c>
@@ -2795,7 +2804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44234</v>
       </c>
@@ -2806,7 +2815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44235</v>
       </c>
@@ -2820,7 +2829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -2834,7 +2843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44237</v>
       </c>
@@ -2848,7 +2857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44238</v>
       </c>
@@ -2862,7 +2871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44239</v>
       </c>
@@ -2876,7 +2885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44240</v>
       </c>
@@ -2887,7 +2896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44241</v>
       </c>
@@ -2898,7 +2907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44242</v>
       </c>
@@ -2912,7 +2921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44243</v>
       </c>
@@ -2926,7 +2935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44244</v>
       </c>
@@ -2940,7 +2949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44245</v>
       </c>
@@ -2954,7 +2963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44246</v>
       </c>
@@ -2968,7 +2977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44247</v>
       </c>
@@ -2979,7 +2988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44248</v>
       </c>
@@ -2990,7 +2999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44249</v>
       </c>
@@ -3004,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44250</v>
       </c>
@@ -3018,7 +3027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44251</v>
       </c>
@@ -3032,7 +3041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44252</v>
       </c>
@@ -3046,7 +3055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44253</v>
       </c>
@@ -3060,7 +3069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44254</v>
       </c>
@@ -3071,7 +3080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44255</v>
       </c>
@@ -3082,7 +3091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44256</v>
       </c>
@@ -3096,7 +3105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44257</v>
       </c>
@@ -3110,7 +3119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44258</v>
       </c>
@@ -3124,7 +3133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44259</v>
       </c>
@@ -3138,7 +3147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44260</v>
       </c>
@@ -3152,7 +3161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44261</v>
       </c>
@@ -3163,7 +3172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44262</v>
       </c>
@@ -3174,7 +3183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44263</v>
       </c>
@@ -3188,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44264</v>
       </c>
@@ -3202,7 +3211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44265</v>
       </c>
@@ -3216,7 +3225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44266</v>
       </c>
@@ -3230,7 +3239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44267</v>
       </c>
@@ -3244,7 +3253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44268</v>
       </c>
@@ -3255,7 +3264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44269</v>
       </c>
@@ -3266,7 +3275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44270</v>
       </c>
@@ -3280,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44271</v>
       </c>
@@ -3294,7 +3303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44272</v>
       </c>
@@ -3308,7 +3317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44273</v>
       </c>
@@ -3322,7 +3331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44274</v>
       </c>
@@ -3336,7 +3345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44275</v>
       </c>
@@ -3347,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44276</v>
       </c>
@@ -3358,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44277</v>
       </c>
@@ -3372,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44278</v>
       </c>
@@ -3386,7 +3395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44279</v>
       </c>
@@ -3400,7 +3409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44280</v>
       </c>
@@ -3414,7 +3423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44281</v>
       </c>
@@ -3428,7 +3437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44282</v>
       </c>
@@ -3439,7 +3448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44283</v>
       </c>
@@ -3450,7 +3459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44284</v>
       </c>
@@ -3464,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44285</v>
       </c>
@@ -3478,7 +3487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44286</v>
       </c>
@@ -3492,7 +3501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44287</v>
       </c>
@@ -3506,7 +3515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44288</v>
       </c>
@@ -3520,7 +3529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44289</v>
       </c>
@@ -3534,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44290</v>
       </c>
@@ -3548,7 +3557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44291</v>
       </c>
@@ -3562,7 +3571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44292</v>
       </c>
@@ -3576,7 +3585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44293</v>
       </c>
@@ -3590,7 +3599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44294</v>
       </c>
@@ -3604,7 +3613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44295</v>
       </c>
@@ -3618,7 +3627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44296</v>
       </c>
@@ -3632,7 +3641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44297</v>
       </c>
@@ -3646,7 +3655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44298</v>
       </c>
@@ -3660,7 +3669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44299</v>
       </c>
@@ -3674,7 +3683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44300</v>
       </c>
@@ -3688,7 +3697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44301</v>
       </c>
@@ -3702,7 +3711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44302</v>
       </c>
@@ -3716,7 +3725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44303</v>
       </c>
@@ -3730,7 +3739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44304</v>
       </c>
@@ -3744,7 +3753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44305</v>
       </c>
@@ -3758,7 +3767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44306</v>
       </c>
@@ -3772,7 +3781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44307</v>
       </c>
@@ -3786,7 +3795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44308</v>
       </c>
@@ -3800,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44309</v>
       </c>
@@ -3814,7 +3823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44310</v>
       </c>
@@ -3828,7 +3837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44311</v>
       </c>
@@ -3842,7 +3851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44312</v>
       </c>
@@ -3856,7 +3865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44313</v>
       </c>
@@ -3870,7 +3879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44314</v>
       </c>
@@ -3884,7 +3893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44315</v>
       </c>
@@ -3898,7 +3907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44316</v>
       </c>
@@ -3912,7 +3921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44317</v>
       </c>
@@ -3926,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44318</v>
       </c>
@@ -3940,7 +3949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44319</v>
       </c>
@@ -3954,7 +3963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44320</v>
       </c>
@@ -3968,7 +3977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44321</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44322</v>
       </c>
@@ -3996,7 +4005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44323</v>
       </c>
@@ -4010,7 +4019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44324</v>
       </c>
@@ -4024,7 +4033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44325</v>
       </c>
@@ -4038,7 +4047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44326</v>
       </c>
@@ -4052,7 +4061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44327</v>
       </c>
@@ -4066,7 +4075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44328</v>
       </c>
@@ -4080,7 +4089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44329</v>
       </c>
@@ -4091,7 +4100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44330</v>
       </c>
@@ -4102,7 +4111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44331</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44332</v>
       </c>
@@ -4124,7 +4133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44333</v>
       </c>
@@ -4138,7 +4147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44334</v>
       </c>
@@ -4152,7 +4161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44335</v>
       </c>
@@ -4166,7 +4175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44336</v>
       </c>
@@ -4180,7 +4189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44337</v>
       </c>
@@ -4194,7 +4203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44338</v>
       </c>
@@ -4205,7 +4214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44339</v>
       </c>
@@ -4216,7 +4225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44340</v>
       </c>
@@ -4227,7 +4236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44341</v>
       </c>
@@ -4241,7 +4250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44342</v>
       </c>
@@ -4255,7 +4264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44343</v>
       </c>
@@ -4269,7 +4278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44344</v>
       </c>
@@ -4283,7 +4292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44345</v>
       </c>
@@ -4294,7 +4303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44346</v>
       </c>
@@ -4305,7 +4314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44347</v>
       </c>
@@ -4319,7 +4328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44348</v>
       </c>
@@ -4333,7 +4342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44349</v>
       </c>
@@ -4347,7 +4356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44350</v>
       </c>
@@ -4361,7 +4370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44351</v>
       </c>
@@ -4375,7 +4384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44352</v>
       </c>
@@ -4386,7 +4395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44353</v>
       </c>
@@ -4397,7 +4406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44354</v>
       </c>
@@ -4411,7 +4420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44355</v>
       </c>
@@ -4425,7 +4434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44356</v>
       </c>
@@ -4439,7 +4448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44357</v>
       </c>
@@ -4453,7 +4462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44358</v>
       </c>
@@ -4467,7 +4476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44359</v>
       </c>
@@ -4478,7 +4487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44360</v>
       </c>
@@ -4489,7 +4498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44361</v>
       </c>
@@ -4503,7 +4512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44362</v>
       </c>
@@ -4517,7 +4526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44363</v>
       </c>
@@ -4531,7 +4540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44364</v>
       </c>
@@ -4545,7 +4554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44365</v>
       </c>
@@ -4559,7 +4568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44366</v>
       </c>
@@ -4570,7 +4579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44367</v>
       </c>
@@ -4581,7 +4590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44368</v>
       </c>
@@ -4595,7 +4604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44369</v>
       </c>
@@ -4609,7 +4618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44370</v>
       </c>
@@ -4623,7 +4632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44371</v>
       </c>
@@ -4637,7 +4646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44372</v>
       </c>
@@ -4651,7 +4660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44373</v>
       </c>
@@ -4662,7 +4671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44374</v>
       </c>
@@ -4673,7 +4682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44375</v>
       </c>
@@ -4687,7 +4696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44376</v>
       </c>
@@ -4701,7 +4710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -4715,7 +4724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44378</v>
       </c>
@@ -4729,7 +4738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44379</v>
       </c>
@@ -4743,7 +4752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44380</v>
       </c>
@@ -4754,7 +4763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44381</v>
       </c>
@@ -4765,7 +4774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44382</v>
       </c>
@@ -4779,7 +4788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44383</v>
       </c>
@@ -4793,7 +4802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44384</v>
       </c>
@@ -4807,7 +4816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44385</v>
       </c>
@@ -4821,7 +4830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44386</v>
       </c>
@@ -4835,7 +4844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44387</v>
       </c>
@@ -4846,7 +4855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44388</v>
       </c>
@@ -4857,7 +4866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44389</v>
       </c>
@@ -4871,7 +4880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44390</v>
       </c>
@@ -4885,7 +4894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44391</v>
       </c>
@@ -4899,7 +4908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44392</v>
       </c>
@@ -4913,7 +4922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44393</v>
       </c>
@@ -4927,7 +4936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44394</v>
       </c>
@@ -4938,7 +4947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44395</v>
       </c>
@@ -4949,7 +4958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44396</v>
       </c>
@@ -4963,7 +4972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44397</v>
       </c>
@@ -4977,7 +4986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44398</v>
       </c>
@@ -4991,7 +5000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44399</v>
       </c>
@@ -5005,7 +5014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44400</v>
       </c>
@@ -5019,7 +5028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44401</v>
       </c>
@@ -5030,7 +5039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44402</v>
       </c>
@@ -5041,7 +5050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44403</v>
       </c>
@@ -5055,7 +5064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44404</v>
       </c>
@@ -5069,7 +5078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44405</v>
       </c>
@@ -5083,7 +5092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44406</v>
       </c>
@@ -5097,7 +5106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44407</v>
       </c>
@@ -5111,7 +5120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44408</v>
       </c>
@@ -5122,7 +5131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44409</v>
       </c>
@@ -5133,7 +5142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44410</v>
       </c>
@@ -5147,7 +5156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44411</v>
       </c>
@@ -5161,7 +5170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44412</v>
       </c>
@@ -5175,7 +5184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44413</v>
       </c>
@@ -5189,7 +5198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44414</v>
       </c>
@@ -5203,7 +5212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44415</v>
       </c>
@@ -5214,7 +5223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44416</v>
       </c>
@@ -5225,7 +5234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44417</v>
       </c>
@@ -5239,7 +5248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>44418</v>
       </c>
@@ -5253,7 +5262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44419</v>
       </c>
@@ -5267,7 +5276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44420</v>
       </c>
@@ -5281,7 +5290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44421</v>
       </c>
@@ -5295,7 +5304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44422</v>
       </c>
@@ -5306,7 +5315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44423</v>
       </c>
@@ -5317,7 +5326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44424</v>
       </c>
@@ -5331,7 +5340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44425</v>
       </c>
@@ -5345,7 +5354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44426</v>
       </c>
@@ -5359,7 +5368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44427</v>
       </c>
@@ -5373,7 +5382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44428</v>
       </c>
@@ -5387,7 +5396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44429</v>
       </c>
@@ -5398,7 +5407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44430</v>
       </c>
@@ -5409,7 +5418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44431</v>
       </c>
@@ -5423,7 +5432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44432</v>
       </c>
@@ -5437,7 +5446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44433</v>
       </c>
@@ -5451,7 +5460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44434</v>
       </c>
@@ -5465,7 +5474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44435</v>
       </c>
@@ -5479,7 +5488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44436</v>
       </c>
@@ -5493,7 +5502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44437</v>
       </c>
@@ -5507,7 +5516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44438</v>
       </c>
@@ -5521,7 +5530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44439</v>
       </c>
@@ -5535,7 +5544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44440</v>
       </c>
@@ -5549,7 +5558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44441</v>
       </c>
@@ -5563,7 +5572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44442</v>
       </c>
@@ -5577,7 +5586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44443</v>
       </c>
@@ -5591,7 +5600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44444</v>
       </c>
@@ -5605,7 +5614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44445</v>
       </c>
@@ -5619,7 +5628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44446</v>
       </c>
@@ -5633,7 +5642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44447</v>
       </c>
@@ -5647,7 +5656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44448</v>
       </c>
@@ -5661,7 +5670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>44449</v>
       </c>
@@ -5675,7 +5684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>44450</v>
       </c>
@@ -5689,7 +5698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>44451</v>
       </c>
@@ -5703,7 +5712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>44452</v>
       </c>
@@ -5717,7 +5726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>44453</v>
       </c>
@@ -5731,7 +5740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44454</v>
       </c>
@@ -5745,7 +5754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>44455</v>
       </c>
@@ -5759,7 +5768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>44456</v>
       </c>
@@ -5773,7 +5782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>44457</v>
       </c>
@@ -5787,7 +5796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>44458</v>
       </c>
@@ -5801,7 +5810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>44459</v>
       </c>
@@ -5815,7 +5824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>44460</v>
       </c>
@@ -5829,7 +5838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>44461</v>
       </c>
@@ -5843,7 +5852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>44462</v>
       </c>
@@ -5857,7 +5866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>44463</v>
       </c>
@@ -5871,7 +5880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>44464</v>
       </c>
@@ -5885,7 +5894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>44465</v>
       </c>
@@ -5899,7 +5908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>44466</v>
       </c>
@@ -5913,7 +5922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44467</v>
       </c>
@@ -5927,7 +5936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44468</v>
       </c>
@@ -5941,7 +5950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>44469</v>
       </c>
@@ -5955,7 +5964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>44470</v>
       </c>
@@ -5969,7 +5978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>44471</v>
       </c>
@@ -5983,7 +5992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>44472</v>
       </c>
@@ -5997,7 +6006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>44473</v>
       </c>
@@ -6011,7 +6020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44474</v>
       </c>
@@ -6025,7 +6034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>44475</v>
       </c>
@@ -6039,7 +6048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>44476</v>
       </c>
@@ -6053,7 +6062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>44477</v>
       </c>
@@ -6067,7 +6076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>44478</v>
       </c>
@@ -6081,7 +6090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>44479</v>
       </c>
@@ -6095,7 +6104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>44480</v>
       </c>
@@ -6109,7 +6118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>44481</v>
       </c>
@@ -6123,7 +6132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>44482</v>
       </c>
@@ -6137,7 +6146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>44483</v>
       </c>
@@ -6151,7 +6160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>44484</v>
       </c>
@@ -6165,7 +6174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>44485</v>
       </c>
@@ -6179,7 +6188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>44486</v>
       </c>
@@ -6193,7 +6202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>44487</v>
       </c>
@@ -6207,7 +6216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>44488</v>
       </c>
@@ -6221,7 +6230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>44489</v>
       </c>
@@ -6235,7 +6244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>44490</v>
       </c>
@@ -6249,7 +6258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>44491</v>
       </c>
@@ -6263,7 +6272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>44492</v>
       </c>
@@ -6277,7 +6286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>44493</v>
       </c>
@@ -6291,7 +6300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>44494</v>
       </c>
@@ -6305,7 +6314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>44495</v>
       </c>
@@ -6319,7 +6328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>44496</v>
       </c>
@@ -6333,7 +6342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>44497</v>
       </c>
@@ -6347,7 +6356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>44498</v>
       </c>
@@ -6361,7 +6370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>44499</v>
       </c>
@@ -6375,7 +6384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>44500</v>
       </c>
@@ -6389,7 +6398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>44501</v>
       </c>
@@ -6403,7 +6412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>44502</v>
       </c>
@@ -6417,7 +6426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>44503</v>
       </c>
@@ -6431,7 +6440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>44504</v>
       </c>
@@ -6445,7 +6454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>44505</v>
       </c>
@@ -6459,7 +6468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>44506</v>
       </c>
@@ -6473,7 +6482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>44507</v>
       </c>
@@ -6487,7 +6496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>44508</v>
       </c>
@@ -6501,7 +6510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>44509</v>
       </c>
@@ -6515,7 +6524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>44510</v>
       </c>
@@ -6529,7 +6538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>44511</v>
       </c>
@@ -6543,7 +6552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>44512</v>
       </c>
@@ -6557,7 +6566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>44513</v>
       </c>
@@ -6571,7 +6580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>44514</v>
       </c>
@@ -6585,7 +6594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>44515</v>
       </c>
@@ -6599,7 +6608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>44516</v>
       </c>
@@ -6613,7 +6622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>44517</v>
       </c>
@@ -6627,7 +6636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>44518</v>
       </c>
@@ -6641,7 +6650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>44519</v>
       </c>
@@ -6655,7 +6664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>44520</v>
       </c>
@@ -6669,7 +6678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>44521</v>
       </c>
@@ -6683,7 +6692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>44522</v>
       </c>
@@ -6697,7 +6706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>44523</v>
       </c>
@@ -6711,7 +6720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>44524</v>
       </c>
@@ -6725,7 +6734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>44525</v>
       </c>
@@ -6739,7 +6748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>44526</v>
       </c>
@@ -6753,7 +6762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>44527</v>
       </c>
@@ -6767,7 +6776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>44528</v>
       </c>
@@ -6781,7 +6790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>44529</v>
       </c>
@@ -6795,7 +6804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>44530</v>
       </c>
@@ -6809,7 +6818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>44531</v>
       </c>
@@ -6823,7 +6832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>44532</v>
       </c>
@@ -6837,7 +6846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>44533</v>
       </c>
@@ -6851,7 +6860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>44534</v>
       </c>
@@ -6865,7 +6874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>44535</v>
       </c>
@@ -6879,7 +6888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>44536</v>
       </c>
@@ -6893,7 +6902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>44537</v>
       </c>
@@ -6907,7 +6916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>44538</v>
       </c>
@@ -6921,7 +6930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>44539</v>
       </c>
@@ -6935,7 +6944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>44540</v>
       </c>
@@ -6949,7 +6958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>44541</v>
       </c>
@@ -6963,7 +6972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>44542</v>
       </c>
@@ -6977,7 +6986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>44543</v>
       </c>
@@ -6991,7 +7000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>44544</v>
       </c>
@@ -7005,7 +7014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>44545</v>
       </c>
@@ -7019,7 +7028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>44546</v>
       </c>
@@ -7033,7 +7042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>44547</v>
       </c>
@@ -7047,7 +7056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>44548</v>
       </c>
@@ -7061,7 +7070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>44549</v>
       </c>
@@ -7075,7 +7084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>44550</v>
       </c>
@@ -7089,7 +7098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>44551</v>
       </c>
@@ -7103,7 +7112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>44552</v>
       </c>
@@ -7117,7 +7126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>44553</v>
       </c>
@@ -7131,7 +7140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>44554</v>
       </c>
@@ -7145,7 +7154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>44555</v>
       </c>
@@ -7159,7 +7168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>44556</v>
       </c>
@@ -7173,7 +7182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>44557</v>
       </c>
@@ -7187,7 +7196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>44558</v>
       </c>
@@ -7201,7 +7210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>44559</v>
       </c>
@@ -7215,7 +7224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>44560</v>
       </c>
@@ -7229,7 +7238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>44561</v>
       </c>
@@ -7243,7 +7252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>44562</v>
       </c>
@@ -7257,7 +7266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>44563</v>
       </c>
@@ -7271,7 +7280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>44564</v>
       </c>
@@ -7285,7 +7294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>44565</v>
       </c>
@@ -7299,7 +7308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>44566</v>
       </c>
@@ -7313,7 +7322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>44567</v>
       </c>
@@ -7327,7 +7336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>44568</v>
       </c>
@@ -7341,7 +7350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>44569</v>
       </c>
@@ -7355,7 +7364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>44570</v>
       </c>
@@ -7369,7 +7378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>44571</v>
       </c>
@@ -7383,7 +7392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>44572</v>
       </c>
@@ -7397,7 +7406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>44573</v>
       </c>
@@ -7411,7 +7420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>44574</v>
       </c>
@@ -7425,7 +7434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>44575</v>
       </c>
@@ -7439,7 +7448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>44576</v>
       </c>
@@ -7453,7 +7462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>44577</v>
       </c>
@@ -7467,7 +7476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>44578</v>
       </c>
@@ -7481,7 +7490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>44579</v>
       </c>
@@ -7495,7 +7504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>44580</v>
       </c>
@@ -7509,7 +7518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>44581</v>
       </c>
@@ -7523,7 +7532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>44582</v>
       </c>
@@ -7537,7 +7546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>44583</v>
       </c>
@@ -7551,7 +7560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>44584</v>
       </c>
@@ -7565,7 +7574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>44585</v>
       </c>
@@ -7579,7 +7588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>44586</v>
       </c>
@@ -7593,7 +7602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>44587</v>
       </c>
@@ -7607,7 +7616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>44588</v>
       </c>
@@ -7621,7 +7630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>44589</v>
       </c>
@@ -7635,7 +7644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>44590</v>
       </c>
@@ -7649,7 +7658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>44591</v>
       </c>
@@ -7663,7 +7672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>44592</v>
       </c>
@@ -7677,7 +7686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>44593</v>
       </c>
@@ -7691,7 +7700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>44594</v>
       </c>
@@ -7705,7 +7714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>44595</v>
       </c>
@@ -7719,7 +7728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>44596</v>
       </c>
@@ -7733,7 +7742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>44597</v>
       </c>
@@ -7747,7 +7756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>44598</v>
       </c>
@@ -7761,7 +7770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>44599</v>
       </c>
@@ -7775,7 +7784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>44600</v>
       </c>
@@ -7789,7 +7798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>44601</v>
       </c>
@@ -7803,7 +7812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>44602</v>
       </c>
@@ -7817,7 +7826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>44603</v>
       </c>
@@ -7831,7 +7840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>44604</v>
       </c>
@@ -7845,7 +7854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>44605</v>
       </c>
@@ -7859,7 +7868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>44606</v>
       </c>
@@ -7873,7 +7882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>44607</v>
       </c>
@@ -7887,7 +7896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>44608</v>
       </c>
@@ -7901,7 +7910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>44609</v>
       </c>
@@ -7915,7 +7924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>44610</v>
       </c>
@@ -7929,7 +7938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>44611</v>
       </c>
@@ -7943,7 +7952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>44612</v>
       </c>
@@ -7957,7 +7966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>44613</v>
       </c>
@@ -7971,7 +7980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>44614</v>
       </c>
@@ -7985,7 +7994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>44615</v>
       </c>
@@ -7999,7 +8008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>44616</v>
       </c>
@@ -8013,7 +8022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>44617</v>
       </c>
@@ -8027,7 +8036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>44618</v>
       </c>
@@ -8041,7 +8050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>44619</v>
       </c>
@@ -8055,7 +8064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>44620</v>
       </c>
@@ -8069,7 +8078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>44621</v>
       </c>
@@ -8083,7 +8092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>44622</v>
       </c>
@@ -8097,7 +8106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>44623</v>
       </c>
@@ -8111,7 +8120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>44624</v>
       </c>
@@ -8125,7 +8134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>44625</v>
       </c>
@@ -8139,7 +8148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>44626</v>
       </c>
@@ -8153,7 +8162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>44627</v>
       </c>
@@ -8167,7 +8176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>44628</v>
       </c>
@@ -8181,7 +8190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>44629</v>
       </c>
@@ -8195,7 +8204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>44630</v>
       </c>
@@ -8209,7 +8218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>44631</v>
       </c>
@@ -8223,7 +8232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>44632</v>
       </c>
@@ -8237,7 +8246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>44633</v>
       </c>
@@ -8251,7 +8260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>44634</v>
       </c>
@@ -8265,7 +8274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>44635</v>
       </c>
@@ -8279,7 +8288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>44636</v>
       </c>
@@ -8293,7 +8302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>44637</v>
       </c>
@@ -8307,7 +8316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>44638</v>
       </c>
@@ -8321,7 +8330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>44639</v>
       </c>
@@ -8335,7 +8344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>44640</v>
       </c>
@@ -8349,7 +8358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>44641</v>
       </c>
@@ -8363,7 +8372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>44642</v>
       </c>
@@ -8377,7 +8386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>44643</v>
       </c>
@@ -8391,7 +8400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>44644</v>
       </c>
@@ -8405,7 +8414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>44645</v>
       </c>
@@ -8419,7 +8428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>44646</v>
       </c>
@@ -8433,7 +8442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>44647</v>
       </c>
@@ -8447,7 +8456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>44648</v>
       </c>
@@ -8461,7 +8470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>44649</v>
       </c>
@@ -8475,7 +8484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>44650</v>
       </c>
@@ -8489,7 +8498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>44651</v>
       </c>
@@ -8503,7 +8512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>44652</v>
       </c>
@@ -8517,7 +8526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>44653</v>
       </c>
@@ -8531,7 +8540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>44654</v>
       </c>
@@ -8545,7 +8554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>44655</v>
       </c>
@@ -8559,7 +8568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>44656</v>
       </c>
@@ -8573,7 +8582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>44657</v>
       </c>
@@ -8587,7 +8596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>44658</v>
       </c>
@@ -8601,7 +8610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>44659</v>
       </c>
@@ -8615,7 +8624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>44660</v>
       </c>
@@ -8629,7 +8638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>44661</v>
       </c>
@@ -8643,7 +8652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>44662</v>
       </c>
@@ -8657,7 +8666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>44663</v>
       </c>
@@ -8671,7 +8680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>44664</v>
       </c>
@@ -8685,7 +8694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>44665</v>
       </c>
@@ -8699,7 +8708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>44670</v>
       </c>
@@ -8713,7 +8722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>44671</v>
       </c>
@@ -8727,7 +8736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>44672</v>
       </c>
@@ -8741,7 +8750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>44673</v>
       </c>
@@ -8757,7 +8766,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>44676</v>
       </c>
@@ -8772,7 +8781,7 @@
       </c>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>44677</v>
       </c>
@@ -8786,7 +8795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>44678</v>
       </c>
@@ -8800,7 +8809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>44679</v>
       </c>
@@ -8814,7 +8823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>44680</v>
       </c>
@@ -8828,7 +8837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>44681</v>
       </c>
@@ -8842,7 +8851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>44682</v>
       </c>
@@ -8856,7 +8865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>44683</v>
       </c>
@@ -8870,7 +8879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>44684</v>
       </c>
@@ -8884,7 +8893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>44685</v>
       </c>
@@ -8898,7 +8907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>44686</v>
       </c>
@@ -8912,7 +8921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>44687</v>
       </c>
@@ -8926,7 +8935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>44688</v>
       </c>
@@ -8940,7 +8949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>44689</v>
       </c>
@@ -8954,7 +8963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>44690</v>
       </c>
@@ -8968,7 +8977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>44691</v>
       </c>
@@ -8982,7 +8991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>44692</v>
       </c>
@@ -8996,7 +9005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>44693</v>
       </c>
@@ -9010,7 +9019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>44694</v>
       </c>
@@ -9024,14 +9033,51 @@
         <v>14</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A638" s="1"/>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A639" s="1"/>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A640" s="1"/>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>44695</v>
+      </c>
+      <c r="B638">
+        <v>445</v>
+      </c>
+      <c r="C638" t="s">
+        <v>3</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
+        <v>44696</v>
+      </c>
+      <c r="B639">
+        <v>445</v>
+      </c>
+      <c r="C639" t="s">
+        <v>3</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B640">
+        <v>437</v>
+      </c>
+      <c r="C640" t="s">
+        <v>3</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" s="1"/>
+      <c r="D641" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D256">

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$256</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -410,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F641"/>
+  <dimension ref="A1:F647"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A619" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A641" sqref="A641:E642"/>
+    <sheetView tabSelected="1" topLeftCell="A628" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B641" sqref="B641"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44053</v>
       </c>
@@ -446,7 +447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44054</v>
       </c>
@@ -460,7 +461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44055</v>
       </c>
@@ -474,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44056</v>
       </c>
@@ -488,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44057</v>
       </c>
@@ -502,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44058</v>
       </c>
@@ -513,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44059</v>
       </c>
@@ -524,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44060</v>
       </c>
@@ -538,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44061</v>
       </c>
@@ -552,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44062</v>
       </c>
@@ -566,7 +567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44063</v>
       </c>
@@ -580,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44064</v>
       </c>
@@ -594,7 +595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44065</v>
       </c>
@@ -605,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44066</v>
       </c>
@@ -616,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44067</v>
       </c>
@@ -630,7 +631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44068</v>
       </c>
@@ -644,7 +645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44069</v>
       </c>
@@ -658,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -672,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44071</v>
       </c>
@@ -686,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44072</v>
       </c>
@@ -697,7 +698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44073</v>
       </c>
@@ -708,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -722,7 +723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44075</v>
       </c>
@@ -736,7 +737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44076</v>
       </c>
@@ -750,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44077</v>
       </c>
@@ -764,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44078</v>
       </c>
@@ -778,7 +779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44079</v>
       </c>
@@ -789,7 +790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -800,7 +801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44081</v>
       </c>
@@ -814,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44082</v>
       </c>
@@ -828,7 +829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44083</v>
       </c>
@@ -842,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44084</v>
       </c>
@@ -856,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44085</v>
       </c>
@@ -870,7 +871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44086</v>
       </c>
@@ -881,7 +882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44087</v>
       </c>
@@ -892,7 +893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44088</v>
       </c>
@@ -906,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44089</v>
       </c>
@@ -920,7 +921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44090</v>
       </c>
@@ -934,7 +935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44091</v>
       </c>
@@ -948,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44092</v>
       </c>
@@ -962,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44093</v>
       </c>
@@ -973,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44094</v>
       </c>
@@ -984,7 +985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44095</v>
       </c>
@@ -998,7 +999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44096</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44097</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44098</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44099</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44100</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44101</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44102</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44103</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44104</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44105</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44106</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44107</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44108</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44109</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44110</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44111</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44112</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44113</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44114</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44115</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44116</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44119</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44120</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44121</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44122</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44123</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44124</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44125</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44126</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44127</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44128</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44129</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44130</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44131</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44132</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44133</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44134</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44135</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44136</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44137</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44138</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44139</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44140</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44141</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44142</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44143</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44144</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44145</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44146</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44147</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44148</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44149</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44150</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44151</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44152</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44153</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44154</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44155</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44156</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44157</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44158</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44159</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44160</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44161</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44162</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44163</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44164</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44165</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44166</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44167</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44168</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44169</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44170</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44171</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44172</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44173</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44175</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44176</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44177</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44178</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44179</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44180</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44181</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44182</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44183</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44184</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44185</v>
       </c>
@@ -2177,7 +2178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44186</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44187</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44188</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44189</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44190</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44191</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44192</v>
       </c>
@@ -2266,7 +2267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44193</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44194</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44195</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44198</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44199</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44200</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44201</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44202</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44203</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44204</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44205</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44206</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44207</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44208</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44209</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44210</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44211</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44212</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44213</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44214</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44215</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44216</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44217</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44218</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44219</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44220</v>
       </c>
@@ -2631,7 +2632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44221</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44222</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44223</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44224</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44225</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44226</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44228</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44229</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44230</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44232</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44233</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44234</v>
       </c>
@@ -2815,7 +2816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44235</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44237</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44238</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44239</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44240</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44241</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44242</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44243</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44244</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44245</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44246</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44247</v>
       </c>
@@ -2988,7 +2989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44248</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44249</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44250</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44251</v>
       </c>
@@ -3041,7 +3042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44252</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44253</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44254</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44255</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44256</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44257</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44258</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44259</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44260</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44261</v>
       </c>
@@ -3172,7 +3173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44262</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44263</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44264</v>
       </c>
@@ -3211,7 +3212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44265</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44266</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44267</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44268</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44269</v>
       </c>
@@ -3275,7 +3276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44270</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44271</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44272</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44273</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44274</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44275</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44276</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44277</v>
       </c>
@@ -3381,7 +3382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44278</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44279</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44280</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44281</v>
       </c>
@@ -3437,7 +3438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44282</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44283</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44284</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44285</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44286</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44287</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44288</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44289</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44290</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44291</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44292</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44293</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44294</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44295</v>
       </c>
@@ -3627,7 +3628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44296</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44297</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44298</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44299</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44300</v>
       </c>
@@ -3697,7 +3698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44301</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44302</v>
       </c>
@@ -3725,7 +3726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44303</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44304</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44305</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44306</v>
       </c>
@@ -3781,7 +3782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44307</v>
       </c>
@@ -3795,7 +3796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44308</v>
       </c>
@@ -3809,7 +3810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44309</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44310</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44311</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44312</v>
       </c>
@@ -3865,7 +3866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44313</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44314</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44315</v>
       </c>
@@ -3907,7 +3908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44316</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44317</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44318</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44319</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44320</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44321</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44322</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44323</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44324</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44325</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44326</v>
       </c>
@@ -4061,7 +4062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44327</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44328</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44329</v>
       </c>
@@ -4100,7 +4101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44330</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44331</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44332</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44333</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44334</v>
       </c>
@@ -4161,7 +4162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44335</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44336</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44337</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44338</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44339</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44340</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44341</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44342</v>
       </c>
@@ -4264,7 +4265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44343</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44344</v>
       </c>
@@ -4292,7 +4293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44345</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44346</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44347</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44348</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44349</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44350</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44351</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44352</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44353</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44354</v>
       </c>
@@ -4420,7 +4421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44355</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44356</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44357</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44358</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44359</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44360</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44361</v>
       </c>
@@ -4512,7 +4513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44362</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44363</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44364</v>
       </c>
@@ -4554,7 +4555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44365</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44366</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44367</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44368</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44369</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44370</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44371</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44372</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44373</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44374</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44375</v>
       </c>
@@ -4696,7 +4697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44376</v>
       </c>
@@ -4710,7 +4711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44378</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44379</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44380</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44381</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44382</v>
       </c>
@@ -4788,7 +4789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44383</v>
       </c>
@@ -4802,7 +4803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44384</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44385</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44386</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44387</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44388</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44389</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44390</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44391</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44392</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44393</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44394</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44395</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44396</v>
       </c>
@@ -4972,7 +4973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44397</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44398</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44399</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44400</v>
       </c>
@@ -5028,7 +5029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44401</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44402</v>
       </c>
@@ -5050,7 +5051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44403</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44404</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44405</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44406</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44407</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44408</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44409</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44410</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44411</v>
       </c>
@@ -5170,7 +5171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>44412</v>
       </c>
@@ -5184,7 +5185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>44413</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>44414</v>
       </c>
@@ -5212,7 +5213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>44415</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>44416</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>44417</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>44418</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>44419</v>
       </c>
@@ -5276,7 +5277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>44420</v>
       </c>
@@ -5290,7 +5291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>44421</v>
       </c>
@@ -5304,7 +5305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44422</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44423</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44424</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44425</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>44426</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>44427</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44428</v>
       </c>
@@ -5396,7 +5397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>44429</v>
       </c>
@@ -5407,7 +5408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>44430</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44431</v>
       </c>
@@ -5432,7 +5433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>44432</v>
       </c>
@@ -5446,7 +5447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44433</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>44434</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>44435</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44436</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>44437</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>44438</v>
       </c>
@@ -5530,7 +5531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44439</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>44440</v>
       </c>
@@ -5558,7 +5559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>44441</v>
       </c>
@@ -5572,7 +5573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44442</v>
       </c>
@@ -5586,7 +5587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>44443</v>
       </c>
@@ -5600,7 +5601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>44444</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>44445</v>
       </c>
@@ -5628,7 +5629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>44446</v>
       </c>
@@ -5642,7 +5643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>44447</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>44448</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>44449</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>44450</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>44451</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>44452</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>44453</v>
       </c>
@@ -5740,7 +5741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>44454</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>44455</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>44456</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>44457</v>
       </c>
@@ -5796,7 +5797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>44458</v>
       </c>
@@ -5810,7 +5811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>44459</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>44460</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>44461</v>
       </c>
@@ -5852,7 +5853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>44462</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>44463</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>44464</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>44465</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>44466</v>
       </c>
@@ -5922,7 +5923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>44467</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>44468</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>44469</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>44470</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>44471</v>
       </c>
@@ -5992,7 +5993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>44472</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>44473</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>44474</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>44475</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>44476</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>44477</v>
       </c>
@@ -6076,7 +6077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44478</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>44479</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>44480</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>44481</v>
       </c>
@@ -6132,7 +6133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>44482</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>44483</v>
       </c>
@@ -6160,7 +6161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>44484</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>44485</v>
       </c>
@@ -6188,7 +6189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>44486</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>44487</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>44488</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>44489</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>44490</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>44491</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>44492</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>44493</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>44494</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>44495</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>44496</v>
       </c>
@@ -6342,7 +6343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>44497</v>
       </c>
@@ -6356,7 +6357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>44498</v>
       </c>
@@ -6370,7 +6371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>44499</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>44500</v>
       </c>
@@ -6398,7 +6399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>44501</v>
       </c>
@@ -6412,7 +6413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>44502</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>44503</v>
       </c>
@@ -6440,7 +6441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>44504</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>44505</v>
       </c>
@@ -6468,7 +6469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>44506</v>
       </c>
@@ -6482,7 +6483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>44507</v>
       </c>
@@ -6496,7 +6497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>44508</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>44509</v>
       </c>
@@ -6524,7 +6525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>44510</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>44511</v>
       </c>
@@ -6552,7 +6553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>44512</v>
       </c>
@@ -6566,7 +6567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>44513</v>
       </c>
@@ -6580,7 +6581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>44514</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>44515</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>44516</v>
       </c>
@@ -6622,7 +6623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>44517</v>
       </c>
@@ -6636,7 +6637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>44518</v>
       </c>
@@ -6650,7 +6651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>44519</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>44520</v>
       </c>
@@ -6678,7 +6679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>44521</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>44522</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>44523</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>44524</v>
       </c>
@@ -6734,7 +6735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>44525</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>44526</v>
       </c>
@@ -6762,7 +6763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>44527</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>44528</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>44529</v>
       </c>
@@ -6804,7 +6805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>44530</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>44531</v>
       </c>
@@ -6832,7 +6833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>44532</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>44533</v>
       </c>
@@ -6860,7 +6861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>44534</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>44535</v>
       </c>
@@ -6888,7 +6889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>44536</v>
       </c>
@@ -6902,7 +6903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>44537</v>
       </c>
@@ -6916,7 +6917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>44538</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>44539</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>44540</v>
       </c>
@@ -6958,7 +6959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>44541</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>44542</v>
       </c>
@@ -6986,7 +6987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>44543</v>
       </c>
@@ -7000,7 +7001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>44544</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>44545</v>
       </c>
@@ -7028,7 +7029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>44546</v>
       </c>
@@ -7042,7 +7043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>44547</v>
       </c>
@@ -7056,7 +7057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>44548</v>
       </c>
@@ -7070,7 +7071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>44549</v>
       </c>
@@ -7084,7 +7085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>44550</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>44551</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>44552</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>44553</v>
       </c>
@@ -7140,7 +7141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>44554</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>44555</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>44556</v>
       </c>
@@ -7182,7 +7183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>44557</v>
       </c>
@@ -7196,7 +7197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>44558</v>
       </c>
@@ -7210,7 +7211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>44559</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>44560</v>
       </c>
@@ -7238,7 +7239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>44561</v>
       </c>
@@ -7252,7 +7253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>44562</v>
       </c>
@@ -7266,7 +7267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>44563</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>44564</v>
       </c>
@@ -7294,7 +7295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>44565</v>
       </c>
@@ -7308,7 +7309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>44566</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>44567</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>44568</v>
       </c>
@@ -7350,7 +7351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>44569</v>
       </c>
@@ -7364,7 +7365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>44570</v>
       </c>
@@ -7378,7 +7379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>44571</v>
       </c>
@@ -7392,7 +7393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>44572</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>44573</v>
       </c>
@@ -7420,7 +7421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>44574</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>44575</v>
       </c>
@@ -7448,7 +7449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>44576</v>
       </c>
@@ -7462,7 +7463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>44577</v>
       </c>
@@ -7476,7 +7477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>44578</v>
       </c>
@@ -7490,7 +7491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>44579</v>
       </c>
@@ -7504,7 +7505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>44580</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>44581</v>
       </c>
@@ -7532,7 +7533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>44582</v>
       </c>
@@ -7546,7 +7547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>44583</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>44584</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>44585</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>44586</v>
       </c>
@@ -7602,7 +7603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>44587</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>44588</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>44589</v>
       </c>
@@ -7644,7 +7645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>44590</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>44591</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>44592</v>
       </c>
@@ -7686,7 +7687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>44593</v>
       </c>
@@ -7700,7 +7701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>44594</v>
       </c>
@@ -7714,7 +7715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>44595</v>
       </c>
@@ -7728,7 +7729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>44596</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>44597</v>
       </c>
@@ -7756,7 +7757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>44598</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>44599</v>
       </c>
@@ -7784,7 +7785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>44600</v>
       </c>
@@ -7798,7 +7799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>44601</v>
       </c>
@@ -7812,7 +7813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>44602</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>44603</v>
       </c>
@@ -7840,7 +7841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>44604</v>
       </c>
@@ -7854,7 +7855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>44605</v>
       </c>
@@ -7868,7 +7869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>44606</v>
       </c>
@@ -7882,7 +7883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>44607</v>
       </c>
@@ -7896,7 +7897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>44608</v>
       </c>
@@ -7910,7 +7911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>44609</v>
       </c>
@@ -7924,7 +7925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>44610</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>44611</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>44612</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>44613</v>
       </c>
@@ -7980,7 +7981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>44614</v>
       </c>
@@ -7994,7 +7995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>44615</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>44616</v>
       </c>
@@ -8022,7 +8023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>44617</v>
       </c>
@@ -8036,7 +8037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>44618</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>44619</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>44620</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>44621</v>
       </c>
@@ -8092,7 +8093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>44622</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>44623</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>44624</v>
       </c>
@@ -8134,7 +8135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>44625</v>
       </c>
@@ -8148,7 +8149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>44626</v>
       </c>
@@ -8162,7 +8163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>44627</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>44628</v>
       </c>
@@ -8190,7 +8191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>44629</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>44630</v>
       </c>
@@ -8218,7 +8219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>44631</v>
       </c>
@@ -8232,7 +8233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>44632</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>44633</v>
       </c>
@@ -8260,7 +8261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>44634</v>
       </c>
@@ -8274,7 +8275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>44635</v>
       </c>
@@ -8288,7 +8289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>44636</v>
       </c>
@@ -8302,7 +8303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>44637</v>
       </c>
@@ -8316,7 +8317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>44638</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>44639</v>
       </c>
@@ -8344,7 +8345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>44640</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>44641</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>44642</v>
       </c>
@@ -8386,7 +8387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>44643</v>
       </c>
@@ -8400,7 +8401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>44644</v>
       </c>
@@ -8414,7 +8415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>44645</v>
       </c>
@@ -8428,7 +8429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>44646</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>44647</v>
       </c>
@@ -8456,7 +8457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>44648</v>
       </c>
@@ -8470,7 +8471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>44649</v>
       </c>
@@ -8484,7 +8485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>44650</v>
       </c>
@@ -8498,7 +8499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>44651</v>
       </c>
@@ -8512,7 +8513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>44652</v>
       </c>
@@ -8526,7 +8527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>44653</v>
       </c>
@@ -8540,7 +8541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>44654</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>44655</v>
       </c>
@@ -8568,7 +8569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>44656</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>44657</v>
       </c>
@@ -8596,7 +8597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>44658</v>
       </c>
@@ -8610,7 +8611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>44659</v>
       </c>
@@ -8624,7 +8625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>44660</v>
       </c>
@@ -8638,7 +8639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>44661</v>
       </c>
@@ -8652,7 +8653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>44662</v>
       </c>
@@ -8666,7 +8667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>44663</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>44664</v>
       </c>
@@ -8694,7 +8695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>44665</v>
       </c>
@@ -8708,7 +8709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>44670</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>44671</v>
       </c>
@@ -8736,7 +8737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>44672</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>44673</v>
       </c>
@@ -8766,7 +8767,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>44676</v>
       </c>
@@ -8781,7 +8782,7 @@
       </c>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>44677</v>
       </c>
@@ -8795,7 +8796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>44678</v>
       </c>
@@ -8809,7 +8810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>44679</v>
       </c>
@@ -8823,7 +8824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>44680</v>
       </c>
@@ -8837,7 +8838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>44681</v>
       </c>
@@ -8851,7 +8852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>44682</v>
       </c>
@@ -8865,7 +8866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>44683</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>44684</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>44685</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>44686</v>
       </c>
@@ -8921,7 +8922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>44687</v>
       </c>
@@ -8935,7 +8936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>44688</v>
       </c>
@@ -8949,7 +8950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>44689</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>44690</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>44691</v>
       </c>
@@ -8991,7 +8992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>44692</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>44693</v>
       </c>
@@ -9019,7 +9020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>44694</v>
       </c>
@@ -9033,7 +9034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>44695</v>
       </c>
@@ -9047,7 +9048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>44696</v>
       </c>
@@ -9061,7 +9062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>44697</v>
       </c>
@@ -9075,9 +9076,103 @@
         <v>17</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A641" s="1"/>
-      <c r="D641" s="2"/>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A641" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B641">
+        <v>415</v>
+      </c>
+      <c r="C641" t="s">
+        <v>3</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A642" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B642">
+        <v>395</v>
+      </c>
+      <c r="C642" t="s">
+        <v>3</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A643" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B643">
+        <v>353</v>
+      </c>
+      <c r="C643" t="s">
+        <v>3</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A644" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B644">
+        <v>356</v>
+      </c>
+      <c r="C644" t="s">
+        <v>3</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A645" s="1">
+        <v>44702</v>
+      </c>
+      <c r="B645">
+        <v>356</v>
+      </c>
+      <c r="C645" t="s">
+        <v>3</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A646" s="1">
+        <v>44703</v>
+      </c>
+      <c r="B646">
+        <v>356</v>
+      </c>
+      <c r="C646" t="s">
+        <v>3</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A647" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B647">
+        <v>331</v>
+      </c>
+      <c r="C647" t="s">
+        <v>3</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D256">

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$256</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -411,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F647"/>
+  <dimension ref="A1:F654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A628" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B641" sqref="B641"/>
+    <sheetView tabSelected="1" topLeftCell="A643" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C654" sqref="C654:D654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9171,6 +9170,104 @@
         <v>3</v>
       </c>
       <c r="D647" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A648" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B648">
+        <v>331</v>
+      </c>
+      <c r="C648" t="s">
+        <v>3</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A649" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B649">
+        <v>331</v>
+      </c>
+      <c r="C649" t="s">
+        <v>3</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A650" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B650">
+        <v>331</v>
+      </c>
+      <c r="C650" t="s">
+        <v>3</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A651" s="1">
+        <v>44708</v>
+      </c>
+      <c r="B651">
+        <v>331</v>
+      </c>
+      <c r="C651" t="s">
+        <v>3</v>
+      </c>
+      <c r="D651" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A652" s="1">
+        <v>44709</v>
+      </c>
+      <c r="B652">
+        <v>331</v>
+      </c>
+      <c r="C652" t="s">
+        <v>3</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A653" s="1">
+        <v>44710</v>
+      </c>
+      <c r="B653">
+        <v>331</v>
+      </c>
+      <c r="C653" t="s">
+        <v>3</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A654" s="1">
+        <v>44711</v>
+      </c>
+      <c r="B654">
+        <v>263</v>
+      </c>
+      <c r="C654" t="s">
+        <v>3</v>
+      </c>
+      <c r="D654" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F654"/>
+  <dimension ref="A1:F657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A643" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C654" sqref="C654:D654"/>
+    <sheetView tabSelected="1" topLeftCell="A649" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D660" sqref="D660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9038,6 +9038,7 @@
         <v>44695</v>
       </c>
       <c r="B638">
+        <f>B637</f>
         <v>445</v>
       </c>
       <c r="C638" t="s">
@@ -9052,6 +9053,7 @@
         <v>44696</v>
       </c>
       <c r="B639">
+        <f>B638</f>
         <v>445</v>
       </c>
       <c r="C639" t="s">
@@ -9136,6 +9138,7 @@
         <v>44702</v>
       </c>
       <c r="B645">
+        <f>B644</f>
         <v>356</v>
       </c>
       <c r="C645" t="s">
@@ -9150,6 +9153,7 @@
         <v>44703</v>
       </c>
       <c r="B646">
+        <f>B645</f>
         <v>356</v>
       </c>
       <c r="C646" t="s">
@@ -9178,6 +9182,7 @@
         <v>44705</v>
       </c>
       <c r="B648">
+        <f>B647</f>
         <v>331</v>
       </c>
       <c r="C648" t="s">
@@ -9192,6 +9197,7 @@
         <v>44706</v>
       </c>
       <c r="B649">
+        <f t="shared" ref="B649:B653" si="0">B648</f>
         <v>331</v>
       </c>
       <c r="C649" t="s">
@@ -9206,6 +9212,7 @@
         <v>44707</v>
       </c>
       <c r="B650">
+        <f t="shared" si="0"/>
         <v>331</v>
       </c>
       <c r="C650" t="s">
@@ -9220,6 +9227,7 @@
         <v>44708</v>
       </c>
       <c r="B651">
+        <f t="shared" si="0"/>
         <v>331</v>
       </c>
       <c r="C651" t="s">
@@ -9234,6 +9242,7 @@
         <v>44709</v>
       </c>
       <c r="B652">
+        <f t="shared" si="0"/>
         <v>331</v>
       </c>
       <c r="C652" t="s">
@@ -9248,6 +9257,7 @@
         <v>44710</v>
       </c>
       <c r="B653">
+        <f t="shared" si="0"/>
         <v>331</v>
       </c>
       <c r="C653" t="s">
@@ -9268,6 +9278,50 @@
         <v>3</v>
       </c>
       <c r="D654" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A655" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B655">
+        <f>B654</f>
+        <v>263</v>
+      </c>
+      <c r="C655" t="s">
+        <v>3</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A656" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B656">
+        <f>B655</f>
+        <v>263</v>
+      </c>
+      <c r="C656" t="s">
+        <v>3</v>
+      </c>
+      <c r="D656" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A657" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B657">
+        <v>239</v>
+      </c>
+      <c r="C657" t="s">
+        <v>3</v>
+      </c>
+      <c r="D657" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F657"/>
+  <dimension ref="A1:F668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A649" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D660" sqref="D660"/>
+    <sheetView tabSelected="1" topLeftCell="A648" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C668" sqref="C657:D668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9322,6 +9322,168 @@
         <v>3</v>
       </c>
       <c r="D657" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A658" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B658">
+        <f>B657</f>
+        <v>239</v>
+      </c>
+      <c r="C658" t="s">
+        <v>3</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A659" s="1">
+        <v>44716</v>
+      </c>
+      <c r="B659">
+        <f>B658</f>
+        <v>239</v>
+      </c>
+      <c r="C659" t="s">
+        <v>3</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A660" s="1">
+        <v>44717</v>
+      </c>
+      <c r="B660">
+        <f>B659</f>
+        <v>239</v>
+      </c>
+      <c r="C660" t="s">
+        <v>3</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A661" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B661">
+        <f>B660</f>
+        <v>239</v>
+      </c>
+      <c r="C661" t="s">
+        <v>3</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A662" s="1">
+        <v>44719</v>
+      </c>
+      <c r="B662">
+        <v>257</v>
+      </c>
+      <c r="C662" t="s">
+        <v>3</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A663" s="1">
+        <v>44720</v>
+      </c>
+      <c r="B663">
+        <f>B662</f>
+        <v>257</v>
+      </c>
+      <c r="C663" t="s">
+        <v>3</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A664" s="1">
+        <v>44721</v>
+      </c>
+      <c r="B664">
+        <v>278</v>
+      </c>
+      <c r="C664" t="s">
+        <v>3</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A665" s="1">
+        <v>44722</v>
+      </c>
+      <c r="B665">
+        <f t="shared" ref="B665:B667" si="1">B664</f>
+        <v>278</v>
+      </c>
+      <c r="C665" t="s">
+        <v>3</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A666" s="1">
+        <v>44723</v>
+      </c>
+      <c r="B666">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+      <c r="C666" t="s">
+        <v>3</v>
+      </c>
+      <c r="D666" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A667" s="1">
+        <v>44724</v>
+      </c>
+      <c r="B667">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+      <c r="C667" t="s">
+        <v>3</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A668" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B668">
+        <v>310</v>
+      </c>
+      <c r="C668" t="s">
+        <v>3</v>
+      </c>
+      <c r="D668" s="2" t="s">
         <v>17</v>
       </c>
     </row>
